--- a/DevOps IaaS tools.xlsx
+++ b/DevOps IaaS tools.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshwinS\Desktop\Research Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshwinS\Desktop\Research Docs\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Cloud server Management tool, which is used to remotely fire management commands over cloud servers.</t>
+  </si>
+  <si>
+    <t>IaaS</t>
+  </si>
+  <si>
+    <t>OpenShift(Online)</t>
+  </si>
+  <si>
+    <t>Owned and maintained by RedHat, provides both Public PaaS and Virtual Private PaaS options</t>
+  </si>
+  <si>
+    <t>Has support for various services like Jenkins, Redis, mySQL, OpenStack etc. It also provides frameworks like Rails, Django and Drupal. It supports vertical, horizontal and auto scaling.</t>
   </si>
 </sst>
 </file>
@@ -224,9 +236,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -241,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,35 +545,35 @@
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="5" customWidth="1"/>
-    <col min="5" max="5" width="100.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="55" style="4" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
+      <c r="A1" s="6">
         <v>43650</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -573,10 +585,10 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -590,7 +602,7 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -604,7 +616,7 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -618,7 +630,7 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -632,10 +644,10 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -649,7 +661,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -663,7 +675,7 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -677,7 +689,7 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -691,7 +703,7 @@
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -705,7 +717,7 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -719,7 +731,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -733,10 +745,10 @@
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -744,55 +756,81 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
